--- a/xls/subject_author_analysis.xlsx
+++ b/xls/subject_author_analysis.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfoasberg\Desktop\ProjectTRIKE\American_Literature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfoasberg\Desktop\ProjectTRIKE\Son_of_Am_Lit\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="99">
   <si>
     <t>Apess, William (1798-1839)</t>
   </si>
@@ -345,6 +346,9 @@
   </si>
   <si>
     <t>Polish, Jewish immigrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender </t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1190,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -1548,11 +1552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1569,7 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1585,7 +1589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1602,7 +1606,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1615,8 +1619,11 @@
       <c r="D3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1637,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1658,7 +1665,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1672,7 +1679,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1686,7 +1693,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1700,7 +1707,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,7 +1721,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1731,7 +1738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1748,7 +1755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,7 +1769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1793,7 +1800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2916,10 +2923,547 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xls/subject_author_analysis.xlsx
+++ b/xls/subject_author_analysis.xlsx
@@ -2,23 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfoasberg\Desktop\ProjectTRIKE\Son_of_Am_Lit\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="156">
   <si>
     <t>Apess, William (1798-1839)</t>
   </si>
@@ -349,6 +352,177 @@
   </si>
   <si>
     <t xml:space="preserve">Gender </t>
+  </si>
+  <si>
+    <t>Chopin, Kate</t>
+  </si>
+  <si>
+    <t>Clemens, Samuel</t>
+  </si>
+  <si>
+    <t>Douglass, Frederick</t>
+  </si>
+  <si>
+    <t>Faulkner, William</t>
+  </si>
+  <si>
+    <t>Hawthorne, Nathaniel</t>
+  </si>
+  <si>
+    <t>Irving, Washington</t>
+  </si>
+  <si>
+    <t>Melville, Herman</t>
+  </si>
+  <si>
+    <t>Wheatley, Phillis</t>
+  </si>
+  <si>
+    <t>Whitman, Walt</t>
+  </si>
+  <si>
+    <t>Anderson, Sherwood</t>
+  </si>
+  <si>
+    <t>Apess, William</t>
+  </si>
+  <si>
+    <t>Baldwin, James</t>
+  </si>
+  <si>
+    <t>Carson, Rachel</t>
+  </si>
+  <si>
+    <t>Cather, Willa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channing, William Ellery, the Elder </t>
+  </si>
+  <si>
+    <t>Coke, Allison Adelle Hedge</t>
+  </si>
+  <si>
+    <t>Cooper, James Fenimore</t>
+  </si>
+  <si>
+    <t>Cotton, John</t>
+  </si>
+  <si>
+    <t>Cranch, Christopher Pearse</t>
+  </si>
+  <si>
+    <t>Dickey, James</t>
+  </si>
+  <si>
+    <t>Dickinson, Emily</t>
+  </si>
+  <si>
+    <t>Dwight, John Sullivan</t>
+  </si>
+  <si>
+    <t>Dwight, Timothy</t>
+  </si>
+  <si>
+    <t>Eliot, T. S.</t>
+  </si>
+  <si>
+    <t>Flaubert, Gustave</t>
+  </si>
+  <si>
+    <t>Flint, Timothy</t>
+  </si>
+  <si>
+    <t>Franklin, Benjamin</t>
+  </si>
+  <si>
+    <t>Frost, Robert</t>
+  </si>
+  <si>
+    <t>Hemingway, Ernest</t>
+  </si>
+  <si>
+    <t>Holmes, Oliver Wendell</t>
+  </si>
+  <si>
+    <t>Howells, William Dean</t>
+  </si>
+  <si>
+    <t>Ibsen, Henrik</t>
+  </si>
+  <si>
+    <t>Jacobs, Harriet Ann</t>
+  </si>
+  <si>
+    <t>Jefferson, Thomas</t>
+  </si>
+  <si>
+    <t>Lin Yutang</t>
+  </si>
+  <si>
+    <t>Lincoln, Abraham</t>
+  </si>
+  <si>
+    <t>Longfellow, Henry Wordsworth</t>
+  </si>
+  <si>
+    <t>Lowell, Robert</t>
+  </si>
+  <si>
+    <t>Philippe, Charles-Louis</t>
+  </si>
+  <si>
+    <t>Poe, Edgar Allan</t>
+  </si>
+  <si>
+    <t>Porter, Katherine Anne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flower,  Benjamin Orange </t>
+  </si>
+  <si>
+    <t>Harte, Bret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schuyler, George Samuel </t>
+  </si>
+  <si>
+    <t>Steinbeck, John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stowe, Harriet Beecher </t>
+  </si>
+  <si>
+    <t>Taylor, Edward</t>
+  </si>
+  <si>
+    <t>Tocqueville, Alexis-Henri-Charles-Maurice-Clérel, comte de</t>
+  </si>
+  <si>
+    <t>Tompson, Benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toomer, Jean </t>
+  </si>
+  <si>
+    <t>Thoreau, Henry David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metacom, Chief of the Wampanoags </t>
+  </si>
+  <si>
+    <t>Wagner, Richard</t>
+  </si>
+  <si>
+    <t>Warren, Robert Penn</t>
+  </si>
+  <si>
+    <t>Wright, Richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yezierska, Anzia </t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -398,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -418,6 +592,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,6 +617,5052 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Race</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Subject Authors by Year (numbers)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="269533728"/>
+        <c:axId val="269534288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="269533728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269534288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="269534288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269533728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Race of Subject Authors by Year (Percentage)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$27:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="265247792"/>
+        <c:axId val="265241072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="265247792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265241072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="265241072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265247792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Race of subject</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> authors across all years</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17604155730533683"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet7!$A$32:$A$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet7!$A$32:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Asian</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Native</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet7!$B$32:$B$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet7!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="266099200"/>
+        <c:axId val="266100320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="266099200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266100320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="266100320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266099200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gender of subject author across all years</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$38:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$38:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="258318880"/>
+        <c:axId val="258320560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="258318880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258320560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258320560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258318880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gender</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of subject authors by year</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet7!$B$42:$E$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet7!$B$42:$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet7!$B$43:$E$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet7!$B$43:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet7!$B$42:$E$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet7!$B$42:$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet7!$B$44:$E$44</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet7!$B$44:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="269142080"/>
+        <c:axId val="318970832"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet7!$A$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet7!$B$42:$E$42</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet7!$B$42:$D$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet7!$B$45:$E$45</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet7!$B$45:$D$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>17</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="269142080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318970832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="318970832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269142080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,7 +6420,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -1556,7 +6786,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="A1:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,19 +8153,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D39"/>
+  <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1950</v>
+      </c>
+      <c r="I2">
+        <v>1980</v>
+      </c>
+      <c r="J2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2948,8 +8190,24 @@
       <c r="D3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>SUM(H3:J3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2962,8 +8220,24 @@
       <c r="D4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K13" si="0">SUM(H4:J4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2976,8 +8250,24 @@
       <c r="D5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2990,8 +8280,24 @@
       <c r="D6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3004,8 +8310,24 @@
       <c r="D7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -3018,8 +8340,24 @@
       <c r="D8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3032,8 +8370,24 @@
       <c r="D9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -3046,8 +8400,24 @@
       <c r="D10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -3060,8 +8430,24 @@
       <c r="D11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -3074,8 +8460,24 @@
       <c r="D12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -3088,8 +8490,24 @@
       <c r="D13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3103,7 +8521,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -3116,8 +8534,20 @@
       <c r="D15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -3130,8 +8560,20 @@
       <c r="D16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -3144,8 +8586,20 @@
       <c r="D17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3158,8 +8612,20 @@
       <c r="D18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -3172,8 +8638,20 @@
       <c r="D19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -3186,8 +8664,20 @@
       <c r="D20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -3200,8 +8690,20 @@
       <c r="D21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -3214,8 +8716,20 @@
       <c r="D22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -3228,8 +8742,20 @@
       <c r="D23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3242,8 +8768,20 @@
       <c r="D24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -3256,8 +8794,20 @@
       <c r="D25" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -3270,8 +8820,20 @@
       <c r="D26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -3284,8 +8846,20 @@
       <c r="D27" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3298,8 +8872,20 @@
       <c r="D28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -3312,8 +8898,20 @@
       <c r="D29" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3326,8 +8924,20 @@
       <c r="D30" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -3340,8 +8950,20 @@
       <c r="D31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -3354,8 +8976,20 @@
       <c r="D32" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -3368,8 +9002,20 @@
       <c r="D33" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +9028,20 @@
       <c r="D34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -3396,8 +9054,20 @@
       <c r="D35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -3410,8 +9080,20 @@
       <c r="D36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -3424,8 +9106,20 @@
       <c r="D37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
@@ -3438,8 +9132,20 @@
       <c r="D38" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -3451,6 +9157,396 @@
       </c>
       <c r="D39" t="s">
         <v>72</v>
+      </c>
+      <c r="G39" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>137</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>145</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>150</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>152</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>153</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <f>SUM(H15:H65)</f>
+        <v>20</v>
+      </c>
+      <c r="I66">
+        <f>SUM(I15:I65)</f>
+        <v>21</v>
+      </c>
+      <c r="J66">
+        <f>SUM(J15:J65)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3460,10 +9556,1418 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K89"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIF(C2:C89,"Female")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF(C2:C89,"Male")</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7">
+        <v>1950</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIF(C2:C36,"Female")</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIF(C2:C36,"Male")</f>
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <f>SUM(G7:H7)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8">
+        <v>1980</v>
+      </c>
+      <c r="G8">
+        <f>COUNTIF(C37:C72,"Female")</f>
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF(C37:C72,"Male")</f>
+        <v>31</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" ref="I8:I9" si="0">SUM(G8:H8)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9">
+        <v>2010</v>
+      </c>
+      <c r="G9">
+        <f>COUNTIF(C73:C89,"Female")</f>
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF(C73:C89,"Male")</f>
+        <v>12</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G7:G9)</f>
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <f>SUM(H7:H9)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13">
+        <v>1950</v>
+      </c>
+      <c r="I13">
+        <v>1980</v>
+      </c>
+      <c r="J13">
+        <v>2010</v>
+      </c>
+      <c r="K13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <f>COUNTIF(C2:C36,"Female")</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>COUNTIF(C37:C72,"Female")</f>
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <f>COUNTIF(C73:C89,"Female")</f>
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <f>COUNTIF(C2:C36,"Male")</f>
+        <v>34</v>
+      </c>
+      <c r="I15">
+        <f>COUNTIF(C37:C72,"Male")</f>
+        <v>31</v>
+      </c>
+      <c r="J15">
+        <f>COUNTIF(C73:C89,"Male")</f>
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>36</v>
+      </c>
+      <c r="J16">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <f>SUM(H16:J18)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D89">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3663,4 +11167,1757 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1950</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>34</v>
+      </c>
+      <c r="D3" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1980</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12">
+        <v>31</v>
+      </c>
+      <c r="D5" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="12">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="12">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="12">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12">
+        <v>77</v>
+      </c>
+      <c r="D14" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
+        <v>1950</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1980</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="12">
+        <f>SUM(B18:B21)</f>
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C18:C21)</f>
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D18:D21)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
+        <v>1950</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1980</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="14">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0.92</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40">
+        <f>SUM(B38:B39)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1950</v>
+      </c>
+      <c r="C42">
+        <v>1980</v>
+      </c>
+      <c r="D42">
+        <v>2010</v>
+      </c>
+      <c r="E42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>17</v>
+      </c>
+      <c r="E45">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIF(D1:D88,"Asian")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIF(D1:D88, "Black")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIF(D1:D88,"Native")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIF(D1:D88, "White")</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7">
+        <f>SUM(I3:I6)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1950</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xls/subject_author_analysis.xlsx
+++ b/xls/subject_author_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -664,7 +664,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -955,11 +954,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269533728"/>
-        <c:axId val="269534288"/>
+        <c:axId val="262188672"/>
+        <c:axId val="262189232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269533728"/>
+        <c:axId val="262188672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +1001,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269534288"/>
+        <c:crossAx val="262189232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1010,7 +1009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269534288"/>
+        <c:axId val="262189232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269533728"/>
+        <c:crossAx val="262188672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1075,7 +1074,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1182,7 +1180,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1473,11 +1470,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="265247792"/>
-        <c:axId val="265241072"/>
+        <c:axId val="257449216"/>
+        <c:axId val="257449776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="265247792"/>
+        <c:axId val="257449216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,7 +1517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265241072"/>
+        <c:crossAx val="257449776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1528,7 +1525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265241072"/>
+        <c:axId val="257449776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265247792"/>
+        <c:crossAx val="257449216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1593,7 +1590,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1828,11 +1824,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="266099200"/>
-        <c:axId val="266100320"/>
+        <c:axId val="257452576"/>
+        <c:axId val="257535232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="266099200"/>
+        <c:axId val="257452576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266100320"/>
+        <c:crossAx val="257535232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1883,7 +1879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266100320"/>
+        <c:axId val="257535232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +1930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266099200"/>
+        <c:crossAx val="257452576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2123,11 +2119,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="258318880"/>
-        <c:axId val="258320560"/>
+        <c:axId val="257537472"/>
+        <c:axId val="257538032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="258318880"/>
+        <c:axId val="257537472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258320560"/>
+        <c:crossAx val="257538032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2178,7 +2174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258320560"/>
+        <c:axId val="257538032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258318880"/>
+        <c:crossAx val="257537472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2323,7 +2319,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2518,8 +2513,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="269142080"/>
-        <c:axId val="318970832"/>
+        <c:axId val="257574336"/>
+        <c:axId val="257574896"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2612,7 +2607,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269142080"/>
+        <c:axId val="257574336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2655,7 +2650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318970832"/>
+        <c:crossAx val="257574896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2663,7 +2658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="318970832"/>
+        <c:axId val="257574896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2714,7 +2709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269142080"/>
+        <c:crossAx val="257574336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2728,7 +2723,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6420,7 +6414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -6784,9 +6778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="A1:D89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11173,8 +11167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
